--- a/results/mp/deberta/corona/confidence/126/stop-words-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="272">
   <si>
     <t>anchor score</t>
   </si>
@@ -79,169 +79,169 @@
     <t>fight</t>
   </si>
   <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>providing</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>providing</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>relief</t>
   </si>
   <si>
     <t>wu</t>
@@ -1195,10 +1195,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1277,7 +1277,7 @@
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1327,7 +1327,7 @@
         <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1377,7 +1377,7 @@
         <v>90</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1427,7 +1427,7 @@
         <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K6">
         <v>0.967741935483871</v>
@@ -1477,7 +1477,7 @@
         <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7">
         <v>0.9555555555555556</v>
@@ -1527,7 +1527,7 @@
         <v>42</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K8">
         <v>0.9482758620689655</v>
@@ -1577,7 +1577,7 @@
         <v>26</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K9">
         <v>0.9333333333333333</v>
@@ -1627,7 +1627,7 @@
         <v>345</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K10">
         <v>0.8947368421052632</v>
@@ -1677,7 +1677,7 @@
         <v>35</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11">
         <v>0.8888888888888888</v>
@@ -1727,7 +1727,7 @@
         <v>38</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12">
         <v>0.8666666666666667</v>
@@ -1777,7 +1777,7 @@
         <v>58</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K13">
         <v>0.8582677165354331</v>
@@ -1827,7 +1827,7 @@
         <v>122</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K14">
         <v>0.8461538461538461</v>
@@ -1877,7 +1877,7 @@
         <v>67</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K15">
         <v>0.8290598290598291</v>
@@ -1906,28 +1906,28 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.09090909090909091</v>
+        <v>0.08536585365853659</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>210</v>
+        <v>16</v>
       </c>
       <c r="E16">
-        <v>0.9399999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="F16">
-        <v>0.06000000000000005</v>
+        <v>0.88</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K16">
         <v>0.8181818181818182</v>
@@ -1956,28 +1956,28 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.08536585365853659</v>
+        <v>0.076</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E17">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F17">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>150</v>
+        <v>231</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K17">
         <v>0.8125</v>
@@ -2006,28 +2006,28 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.076</v>
+        <v>0.04043126684636118</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E18">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="F18">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>231</v>
+        <v>356</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K18">
         <v>0.8</v>
@@ -2056,28 +2056,28 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.04043126684636118</v>
+        <v>0.02137232845894263</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="E19">
-        <v>0.12</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F19">
-        <v>0.88</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>356</v>
+        <v>870</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K19">
         <v>0.7872340425531915</v>
@@ -2106,28 +2106,28 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.02137232845894263</v>
+        <v>0.02037845705967977</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="E20">
-        <v>0.8100000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="F20">
-        <v>0.1899999999999999</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>870</v>
+        <v>673</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K20">
         <v>0.7857142857142857</v>
@@ -2156,28 +2156,28 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02037845705967977</v>
+        <v>0.01900584795321637</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="E21">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F21">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K21">
         <v>0.7777777777777778</v>
@@ -2206,13 +2206,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.01900584795321637</v>
+        <v>0.0182370820668693</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>230</v>
+        <v>528</v>
       </c>
       <c r="E22">
         <v>0.9399999999999999</v>
@@ -2224,10 +2224,10 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>671</v>
+        <v>1615</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K22">
         <v>0.7777777777777778</v>
@@ -2256,28 +2256,28 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.0182370820668693</v>
+        <v>0.01489995742869306</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D23">
-        <v>528</v>
+        <v>793</v>
       </c>
       <c r="E23">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F23">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>1615</v>
+        <v>2314</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K23">
         <v>0.7727272727272727</v>
@@ -2306,28 +2306,28 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.01489995742869306</v>
+        <v>0.01226053639846743</v>
       </c>
       <c r="C24">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D24">
-        <v>793</v>
+        <v>623</v>
       </c>
       <c r="E24">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F24">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>2314</v>
+        <v>2578</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K24">
         <v>0.7643312101910829</v>
@@ -2352,32 +2352,8 @@
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.01226053639846743</v>
-      </c>
-      <c r="C25">
-        <v>32</v>
-      </c>
-      <c r="D25">
-        <v>623</v>
-      </c>
-      <c r="E25">
-        <v>0.95</v>
-      </c>
-      <c r="F25">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>2578</v>
-      </c>
       <c r="J25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K25">
         <v>0.7543859649122807</v>
@@ -2403,7 +2379,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K26">
         <v>0.75177304964539</v>
@@ -2429,7 +2405,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K27">
         <v>0.7222222222222222</v>
@@ -2455,7 +2431,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K28">
         <v>0.72</v>
@@ -2481,7 +2457,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K29">
         <v>0.7173913043478261</v>
@@ -2507,7 +2483,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K30">
         <v>0.7073170731707317</v>
@@ -2533,7 +2509,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K31">
         <v>0.6956521739130435</v>
@@ -2559,7 +2535,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K32">
         <v>0.6862745098039216</v>
@@ -2585,7 +2561,7 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K33">
         <v>0.6857142857142857</v>
@@ -2611,42 +2587,42 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K34">
-        <v>0.6812227074235808</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L34">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="M34">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="N34">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>73</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K35">
-        <v>0.6666666666666666</v>
+        <v>0.6527196652719666</v>
       </c>
       <c r="L35">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="M35">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2658,12 +2634,12 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>8</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K36">
         <v>0.6289473684210526</v>
@@ -2689,7 +2665,7 @@
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K37">
         <v>0.6170212765957447</v>
@@ -2715,7 +2691,7 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K38">
         <v>0.6129032258064516</v>
@@ -2741,7 +2717,7 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K39">
         <v>0.6086956521739131</v>
@@ -2767,7 +2743,7 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K40">
         <v>0.6043956043956044</v>
@@ -2793,28 +2769,28 @@
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K41">
+        <v>0.6</v>
+      </c>
+      <c r="L41">
         <v>21</v>
       </c>
-      <c r="K41">
-        <v>0.6024464831804281</v>
-      </c>
-      <c r="L41">
-        <v>197</v>
-      </c>
       <c r="M41">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="N41">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>130</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2822,25 +2798,25 @@
         <v>70</v>
       </c>
       <c r="K42">
-        <v>0.6</v>
+        <v>0.5970149253731343</v>
       </c>
       <c r="L42">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M42">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2848,25 +2824,25 @@
         <v>71</v>
       </c>
       <c r="K43">
-        <v>0.5970149253731343</v>
+        <v>0.59375</v>
       </c>
       <c r="L43">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M43">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N43">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="O43">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2874,25 +2850,25 @@
         <v>72</v>
       </c>
       <c r="K44">
-        <v>0.59375</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L44">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M44">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="N44">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2926,13 +2902,13 @@
         <v>74</v>
       </c>
       <c r="K46">
-        <v>0.5909090909090909</v>
+        <v>0.58</v>
       </c>
       <c r="L46">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M46">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2944,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2952,13 +2928,13 @@
         <v>75</v>
       </c>
       <c r="K47">
-        <v>0.58</v>
+        <v>0.5794117647058824</v>
       </c>
       <c r="L47">
-        <v>29</v>
+        <v>197</v>
       </c>
       <c r="M47">
-        <v>29</v>
+        <v>197</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2970,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>21</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -6407,7 +6383,7 @@
     </row>
     <row r="180" spans="10:17">
       <c r="J180" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K180">
         <v>0.2467447916666667</v>
@@ -6459,7 +6435,7 @@
     </row>
     <row r="182" spans="10:17">
       <c r="J182" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K182">
         <v>0.2443693693693694</v>
@@ -6641,7 +6617,7 @@
     </row>
     <row r="189" spans="10:17">
       <c r="J189" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K189">
         <v>0.2356838618078561</v>
@@ -6953,7 +6929,7 @@
     </row>
     <row r="201" spans="10:17">
       <c r="J201" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K201">
         <v>0.2110199296600234</v>
@@ -7421,7 +7397,7 @@
     </row>
     <row r="219" spans="10:17">
       <c r="J219" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K219">
         <v>0.1864941621962764</v>
@@ -8175,7 +8151,7 @@
     </row>
     <row r="248" spans="10:17">
       <c r="J248" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K248">
         <v>0.08324552160168598</v>
